--- a/graphics/tables.xlsx
+++ b/graphics/tables.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="29180" yWindow="1200" windowWidth="24800" windowHeight="17320" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="scenarios" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Resizing</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +83,41 @@
   </si>
   <si>
     <t>Exiting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT ADDRESSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex: a table in a
+coffee shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex: an individual
+office desk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex: a table in a
+conference room</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -102,14 +138,25 @@
       <sz val="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -289,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,6 +376,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,9 +740,69 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="22" customWidth="1"/>
+    <col min="2" max="3" width="16.140625" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1" s="14"/>
+      <c r="B1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="85" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="85" customHeight="1" thickBot="1">
+      <c r="A3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="150" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/graphics/tables.xlsx
+++ b/graphics/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29180" yWindow="1200" windowWidth="24800" windowHeight="17320" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="34400" windowHeight="23320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -383,15 +383,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,6 +400,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,49 +743,48 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="22" customWidth="1"/>
-    <col min="2" max="3" width="16.140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" style="15" customWidth="1"/>
     <col min="4" max="16384" width="10.7109375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="14"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="85" customHeight="1">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:3" ht="113" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="85" customHeight="1" thickBot="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:3" ht="113" customHeight="1" thickBot="1">
+      <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -887,7 +886,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/graphics/tables.xlsx
+++ b/graphics/tables.xlsx
@@ -158,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -327,6 +327,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -377,9 +388,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,6 +417,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,44 +754,44 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="24.28515625" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="15"/>
+    <col min="1" max="1" width="12.140625" style="18" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="113" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="113" customHeight="1" thickBot="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
     </row>
